--- a/documentation/specTestSpringwater.xlsx
+++ b/documentation/specTestSpringwater.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\projetQdlGoloviatinskiGriesser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\springwater\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACE990-828B-4C4D-9046-A61048E8BF87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="125">
   <si>
     <t>Cluster id</t>
   </si>
@@ -63,30 +64,15 @@
     <t>PROFILC1</t>
   </si>
   <si>
-    <t>Les regexp sur la page d'inscription marchent</t>
-  </si>
-  <si>
-    <t>PROFILC2</t>
-  </si>
-  <si>
     <t>L'authentification fonctionne correctement</t>
   </si>
   <si>
-    <t>PROFILC4</t>
-  </si>
-  <si>
-    <t>La modification du mot de passe fonctionne</t>
-  </si>
-  <si>
     <t>COMMC1</t>
   </si>
   <si>
     <t>NORM</t>
   </si>
   <si>
-    <t>La moyenne des notes se mets à jour correctement après avoir noté une bière</t>
-  </si>
-  <si>
     <t>Respect des normes w3c + mobiles</t>
   </si>
   <si>
@@ -99,9 +85,6 @@
     <t>Ergonomie</t>
   </si>
   <si>
-    <t>L'ensemble des commentaires d'un utilisateur s'affiche dans le profil</t>
-  </si>
-  <si>
     <t>PROFIL</t>
   </si>
   <si>
@@ -117,9 +100,6 @@
     <t>Système de commentaires/notes</t>
   </si>
   <si>
-    <t>Un utilisateur ne peut pas ajouter plus qu'un commentaire sur une bière</t>
-  </si>
-  <si>
     <t>CHARGE</t>
   </si>
   <si>
@@ -129,9 +109,6 @@
     <t>CHARGEC1</t>
   </si>
   <si>
-    <t>Le site supporte 500 connexions simultanées</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -381,9 +358,6 @@
     <t>CHARGEC1T1</t>
   </si>
   <si>
-    <t>Depuis JMeter avec 500 utilisateurs concurrents...</t>
-  </si>
-  <si>
     <t>Visiter page</t>
   </si>
   <si>
@@ -403,13 +377,34 @@
   </si>
   <si>
     <t>Constater que le serveur n'a pas crash après 500 connexions et analyser temps de réponse</t>
+  </si>
+  <si>
+    <t>Depuis Octoperf</t>
+  </si>
+  <si>
+    <t>La recherche simple et avancée fonctionne</t>
+  </si>
+  <si>
+    <t>Un utilisateurs peut voter et constater que sont vote a été pris en compte</t>
+  </si>
+  <si>
+    <t>Un utilisateur peut ajouter une boisson à ses favorites</t>
+  </si>
+  <si>
+    <t>Le site supporte 50 connexions simultanées</t>
+  </si>
+  <si>
+    <t>COMMC4</t>
+  </si>
+  <si>
+    <t>Un utilisateur peut ajouter une boisson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +460,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,10 +565,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -591,8 +593,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,10 +874,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -897,42 +901,42 @@
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1940,11 +1944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1998,49 +2002,42 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3029,7 +3026,6 @@
     <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3041,11 +3037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3081,7 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="D3" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M3" s="9"/>
     </row>
@@ -3095,31 +3091,31 @@
     </row>
     <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3143,7 +3139,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3162,7 +3158,7 @@
     <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="D13" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M13" s="9"/>
     </row>
@@ -3172,31 +3168,31 @@
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3220,7 +3216,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3239,7 +3235,7 @@
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="D23" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -3249,29 +3245,29 @@
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3297,7 +3293,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3316,19 +3312,19 @@
     <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="D33" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M33" s="9"/>
     </row>
@@ -3338,40 +3334,40 @@
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3395,7 +3391,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3414,19 +3410,19 @@
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="D43" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9"/>
     </row>
@@ -3436,40 +3432,40 @@
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3493,7 +3489,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3512,19 +3508,19 @@
     <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="D53" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M53" s="9"/>
     </row>
@@ -3534,40 +3530,40 @@
     </row>
     <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3591,7 +3587,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3610,19 +3606,19 @@
     <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="D63" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M63" s="9"/>
     </row>
@@ -3632,40 +3628,40 @@
     </row>
     <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M65" s="9"/>
     </row>
     <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F67" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M67" s="9"/>
     </row>
     <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -3689,7 +3685,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3708,13 +3704,13 @@
     <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="D73" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G73" s="10"/>
       <c r="M73" s="9"/>
@@ -3725,28 +3721,28 @@
     </row>
     <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -3754,7 +3750,7 @@
     </row>
     <row r="78" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -3778,7 +3774,7 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3797,13 +3793,13 @@
     <row r="83" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="D83" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G83" s="10"/>
       <c r="M83" s="9"/>
@@ -3814,31 +3810,31 @@
     </row>
     <row r="85" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M86" s="9"/>
     </row>
     <row r="87" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="88" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -3870,7 +3866,7 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -3889,13 +3885,13 @@
     <row r="93" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="D93" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G93" s="10"/>
       <c r="M93" s="9"/>
@@ -3906,28 +3902,28 @@
     </row>
     <row r="95" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M95" s="9"/>
     </row>
     <row r="96" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M96" s="9"/>
     </row>
     <row r="97" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -3935,7 +3931,7 @@
     </row>
     <row r="98" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -3959,7 +3955,7 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -3978,13 +3974,13 @@
     <row r="103" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="D103" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G103" s="10"/>
       <c r="M103" s="9"/>
@@ -3995,28 +3991,28 @@
     </row>
     <row r="105" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M105" s="9"/>
     </row>
     <row r="106" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M106" s="9"/>
     </row>
     <row r="107" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -4024,7 +4020,7 @@
     </row>
     <row r="108" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -4048,7 +4044,7 @@
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -4067,19 +4063,19 @@
     <row r="113" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="D113" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M113" s="9"/>
     </row>
@@ -4089,40 +4085,40 @@
     </row>
     <row r="115" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M115" s="9"/>
     </row>
     <row r="116" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M116" s="9"/>
     </row>
     <row r="117" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M117" s="9"/>
     </row>
     <row r="118" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -4147,7 +4143,7 @@
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4166,19 +4162,19 @@
     <row r="124" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="D124" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M124" s="9"/>
     </row>
@@ -4188,40 +4184,40 @@
     </row>
     <row r="126" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M126" s="9"/>
     </row>
     <row r="127" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M127" s="9"/>
     </row>
     <row r="128" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M128" s="9"/>
     </row>
     <row r="129" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -4246,7 +4242,7 @@
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -4265,19 +4261,19 @@
     <row r="135" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="D135" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M135" s="9"/>
     </row>
@@ -4287,40 +4283,40 @@
     </row>
     <row r="137" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M137" s="9"/>
     </row>
     <row r="138" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M138" s="9"/>
     </row>
     <row r="139" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M139" s="9"/>
     </row>
     <row r="140" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -4344,7 +4340,7 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -4363,17 +4359,17 @@
     <row r="145" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="D145" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G145" s="10"/>
       <c r="H145" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M145" s="9"/>
     </row>
@@ -4383,25 +4379,25 @@
     </row>
     <row r="147" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M147" s="9"/>
     </row>
     <row r="148" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M148" s="9"/>
     </row>
     <row r="149" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4411,10 +4407,10 @@
     </row>
     <row r="150" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
@@ -4424,7 +4420,7 @@
     </row>
     <row r="151" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -4449,7 +4445,7 @@
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -4468,17 +4464,17 @@
     <row r="157" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="D157" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M157" s="9"/>
     </row>
@@ -4488,25 +4484,25 @@
     </row>
     <row r="159" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M159" s="9"/>
     </row>
     <row r="160" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M160" s="9"/>
     </row>
     <row r="161" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4516,10 +4512,10 @@
     </row>
     <row r="162" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F162" s="5">
         <v>5</v>
@@ -4529,7 +4525,7 @@
     </row>
     <row r="163" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -4553,7 +4549,7 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -4572,10 +4568,10 @@
     <row r="168" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="D168" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
@@ -4587,25 +4583,25 @@
     </row>
     <row r="170" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M170" s="9"/>
     </row>
     <row r="171" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M171" s="9"/>
     </row>
     <row r="172" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -4640,7 +4636,7 @@
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -4659,16 +4655,16 @@
     <row r="177" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="D177" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G177" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M177" s="9"/>
     </row>
@@ -4678,40 +4674,40 @@
     </row>
     <row r="179" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M179" s="9"/>
     </row>
     <row r="180" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M180" s="9"/>
     </row>
     <row r="181" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M181" s="9"/>
     </row>
     <row r="182" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M182" s="9"/>
     </row>
     <row r="183" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F183" s="5">
         <v>3</v>
@@ -4720,7 +4716,7 @@
     </row>
     <row r="184" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -4744,7 +4740,7 @@
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -4763,7 +4759,7 @@
     <row r="189" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="D189" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
@@ -4776,16 +4772,16 @@
     </row>
     <row r="191" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M191" s="9"/>
     </row>
     <row r="192" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M192" s="9"/>
     </row>
@@ -4810,7 +4806,7 @@
     </row>
     <row r="196" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -5662,27 +5658,27 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="D16" r:id="rId4"/>
-    <hyperlink ref="D25" r:id="rId5"/>
-    <hyperlink ref="H36" r:id="rId6"/>
-    <hyperlink ref="H46" r:id="rId7"/>
-    <hyperlink ref="H56" r:id="rId8"/>
-    <hyperlink ref="H66" r:id="rId9"/>
-    <hyperlink ref="F76" r:id="rId10"/>
-    <hyperlink ref="F86" r:id="rId11"/>
-    <hyperlink ref="F96" r:id="rId12"/>
-    <hyperlink ref="F106" r:id="rId13"/>
-    <hyperlink ref="H116" r:id="rId14"/>
-    <hyperlink ref="H127" r:id="rId15"/>
-    <hyperlink ref="H138" r:id="rId16"/>
-    <hyperlink ref="H148" r:id="rId17"/>
-    <hyperlink ref="H160" r:id="rId18"/>
-    <hyperlink ref="E171" r:id="rId19"/>
-    <hyperlink ref="G180" r:id="rId20"/>
-    <hyperlink ref="D192" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="H36" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="H46" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H56" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H66" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="F76" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F86" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="F96" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F106" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="H116" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="H127" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="H138" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="H148" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="H160" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="E171" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="G180" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="D192" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5694,11 +5690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5710,13 +5706,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5724,196 +5720,196 @@
         <v>4</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D20" s="21"/>
     </row>

--- a/documentation/specTestSpringwater.xlsx
+++ b/documentation/specTestSpringwater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\springwater\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDD526D-2351-4ECF-8A45-DB6C07D7E225}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C1DDA-323C-4634-B5C1-637264498A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
   <si>
     <t>Cluster id</t>
   </si>
@@ -306,39 +306,15 @@
     <t>PROFILC1T1</t>
   </si>
   <si>
-    <t>https://beerreviews.srvz-webapp.he-arc.ch/beers/1/</t>
-  </si>
-  <si>
-    <t>Entrer valeurs:</t>
-  </si>
-  <si>
     <t>COMMC1T2</t>
   </si>
   <si>
     <t>COMMC2T1</t>
   </si>
   <si>
-    <t>https://beerreviews.srvz-webapp.he-arc.ch/users/profile</t>
-  </si>
-  <si>
-    <t>Vérifier que les commentaires des tests précédents s'affichent</t>
-  </si>
-  <si>
     <t>COMMC3T1</t>
   </si>
   <si>
-    <t>Cliquer sur le lien d'une bière notée précédamment</t>
-  </si>
-  <si>
-    <t>Retenir le commentaire et note initiale faite avec notre compte</t>
-  </si>
-  <si>
-    <t>secondTest</t>
-  </si>
-  <si>
-    <t>Vérifier que le nouveau commentaire et note ont remplacé l'ancien</t>
-  </si>
-  <si>
     <t>CHARGEC1T1</t>
   </si>
   <si>
@@ -448,13 +424,46 @@
   </si>
   <si>
     <t>Constater qu'une liste de boisson est proposée</t>
+  </si>
+  <si>
+    <t>BOIS2T1</t>
+  </si>
+  <si>
+    <t>BOIS3T1</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton modifier d'une boisson</t>
+  </si>
+  <si>
+    <t>Modifier les champs</t>
+  </si>
+  <si>
+    <t>Constater que le nom et la description de la bière ont bien changer</t>
+  </si>
+  <si>
+    <t>BOIS4T1</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton détail d'une boissone</t>
+  </si>
+  <si>
+    <t>Constater que les détails de la boisson sont affichées</t>
+  </si>
+  <si>
+    <t>Cliquer sur le bouton supprimer d'une boisson</t>
+  </si>
+  <si>
+    <t>Confirmer la suppression</t>
+  </si>
+  <si>
+    <t>Constater que la boisson a bien été supprimée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -533,6 +542,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -648,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -676,6 +691,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2172,7 +2188,7 @@
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -3179,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R1048573"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3808,6 +3824,9 @@
       <c r="A77" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4029,7 +4048,9 @@
       <c r="A108" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M108" s="8"/>
     </row>
     <row r="109" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4103,7 +4124,9 @@
       <c r="A119" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M119" s="8"/>
     </row>
     <row r="120" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4144,7 +4167,7 @@
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4166,7 +4189,7 @@
         <v>43</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F127" s="22" t="s">
         <v>13</v>
@@ -4195,27 +4218,27 @@
         <v>56</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M130" s="8"/>
     </row>
     <row r="131" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G131" s="2"/>
       <c r="M131" s="8"/>
     </row>
     <row r="132" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4224,7 +4247,7 @@
     </row>
     <row r="133" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4248,8 +4271,8 @@
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="5" t="s">
-        <v>130</v>
+      <c r="D137" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -4267,9 +4290,7 @@
     </row>
     <row r="139" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
-      <c r="D139" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
         <v>87</v>
       </c>
@@ -4291,13 +4312,13 @@
         <v>56</v>
       </c>
       <c r="H141" s="26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M141" s="8"/>
     </row>
     <row r="142" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4333,8 +4354,8 @@
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="5" t="s">
-        <v>130</v>
+      <c r="D147" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -4358,8 +4379,12 @@
       <c r="E149" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
+      <c r="F149" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="M149" s="8"/>
     </row>
     <row r="150" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4379,256 +4404,336 @@
       <c r="A152" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>96</v>
+      <c r="E152" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="M152" s="8"/>
     </row>
     <row r="153" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="13"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="14"/>
+      <c r="A153" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153" s="26"/>
+      <c r="M153" s="8"/>
     </row>
     <row r="154" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="2"/>
+      <c r="A154" s="24" t="s">
+        <v>135</v>
+      </c>
       <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="F154" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M154" s="8"/>
     </row>
     <row r="155" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="2"/>
+      <c r="A155" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
+      <c r="M155" s="8"/>
     </row>
     <row r="156" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E156" s="26"/>
+      <c r="M156" s="8"/>
+    </row>
+    <row r="157" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="E157" s="26"/>
+      <c r="M157" s="8"/>
+    </row>
+    <row r="158" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="14"/>
+    </row>
+    <row r="159" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="5" t="s">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7"/>
+      <c r="M162" s="8"/>
+    </row>
+    <row r="163" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="7"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F163" s="9"/>
+      <c r="M163" s="8"/>
+    </row>
+    <row r="164" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="7"/>
+      <c r="M164" s="8"/>
+    </row>
+    <row r="165" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E165" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="M157" s="8"/>
-    </row>
-    <row r="158" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="D158" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G158" s="9" t="s">
+      <c r="M165" s="8"/>
+    </row>
+    <row r="166" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="M166" s="8"/>
+    </row>
+    <row r="167" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="M167" s="8"/>
+    </row>
+    <row r="168" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="10"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="M168" s="8"/>
+    </row>
+    <row r="169" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="14"/>
+    </row>
+    <row r="170" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="6"/>
+    </row>
+    <row r="173" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="7"/>
+      <c r="M173" s="8"/>
+    </row>
+    <row r="174" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M158" s="8"/>
-    </row>
-    <row r="159" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="M159" s="8"/>
-    </row>
-    <row r="160" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10" t="s">
+      <c r="F174" s="9"/>
+      <c r="M174" s="8"/>
+    </row>
+    <row r="175" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M160" s="8"/>
-    </row>
-    <row r="161" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10" t="s">
+      <c r="M175" s="8"/>
+    </row>
+    <row r="176" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G161" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M161" s="8"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-    </row>
-    <row r="162" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M162" s="8"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-    </row>
-    <row r="163" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M163" s="8"/>
-      <c r="Q163" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R163" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="2">
-        <v>3</v>
-      </c>
-      <c r="M164" s="8"/>
-      <c r="Q164" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R164" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
-      <c r="K165" s="13"/>
-      <c r="L165" s="13"/>
-      <c r="M165" s="14"/>
-      <c r="Q165" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R165" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+      <c r="E176" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M176" s="8"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+    </row>
+    <row r="177" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M177" s="8"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+    </row>
+    <row r="178" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M178" s="8"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+    </row>
+    <row r="179" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="M179" s="8"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+    </row>
+    <row r="180" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="14"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+    </row>
+    <row r="183" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="6"/>
-    </row>
-    <row r="169" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
-      <c r="M169" s="8"/>
-    </row>
-    <row r="170" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
-      <c r="D170" s="9" t="s">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="6"/>
+    </row>
+    <row r="184" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7"/>
+      <c r="M184" s="8"/>
+    </row>
+    <row r="185" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="7"/>
+      <c r="D185" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="M170" s="8"/>
-    </row>
-    <row r="171" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
-      <c r="M171" s="8"/>
-    </row>
-    <row r="172" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="M172" s="8"/>
-    </row>
-    <row r="173" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="M173" s="8"/>
-    </row>
-    <row r="174" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="M174" s="8"/>
-    </row>
-    <row r="175" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="13"/>
-      <c r="L175" s="13"/>
-      <c r="M175" s="14"/>
-    </row>
-    <row r="176" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="M185" s="8"/>
+    </row>
+    <row r="186" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="7"/>
+      <c r="M186" s="8"/>
+    </row>
+    <row r="187" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M187" s="8"/>
+    </row>
+    <row r="188" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="M188" s="8"/>
+    </row>
+    <row r="189" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="M189" s="8"/>
+    </row>
+    <row r="190" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="14"/>
+    </row>
+    <row r="191" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5416,32 +5521,36 @@
     <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H141" r:id="rId1" display="https://beerreviews.srvz-webapp.he-arc.ch/beers/1/" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E152" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="G161" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E152" r:id="rId2" display="https://beerreviews.srvz-webapp.he-arc.ch/users/profile" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E176" r:id="rId3" display="https://beerreviews.srvz-webapp.he-arc.ch/beers/1/" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E165" r:id="rId4" display="https://beerreviews.srvz-webapp.he-arc.ch/beers/1/" xr:uid="{04B77A97-ABEF-47C1-8AC8-845D9C8943CF}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5467,48 +5576,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D4" s="20"/>
     </row>
@@ -5517,107 +5626,107 @@
         <v>91</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -5627,50 +5736,50 @@
         <v>86</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D20" s="20"/>
     </row>
